--- a/AFM/input/profilePlots.xlsx
+++ b/AFM/input/profilePlots.xlsx
@@ -1,34 +1,46 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AFM\height\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\djimd\Documents\GitHub\2021imageAnalysisMEP\AFM\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{746E9971-B733-4B6A-9627-B6ABFE2E4080}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F73E691-A0A8-49EA-985B-E01681C3FF5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="444" yWindow="1656" windowWidth="20772" windowHeight="10164" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="profileA" sheetId="4" r:id="rId1"/>
     <sheet name="profileB" sheetId="1" r:id="rId2"/>
     <sheet name="coordA" sheetId="3" r:id="rId3"/>
     <sheet name="coordB" sheetId="2" r:id="rId4"/>
+    <sheet name="coord" sheetId="5" r:id="rId5"/>
+    <sheet name="profile" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="41">
   <si>
     <t>x Profile 9</t>
   </si>
@@ -122,6 +134,36 @@
   <si>
     <t>y Profile 9.2</t>
   </si>
+  <si>
+    <t>x3</t>
+  </si>
+  <si>
+    <t>y3</t>
+  </si>
+  <si>
+    <t>x4</t>
+  </si>
+  <si>
+    <t>y4</t>
+  </si>
+  <si>
+    <t>x5</t>
+  </si>
+  <si>
+    <t>y5</t>
+  </si>
+  <si>
+    <t>x6</t>
+  </si>
+  <si>
+    <t>y6</t>
+  </si>
+  <si>
+    <t>x7</t>
+  </si>
+  <si>
+    <t>y7</t>
+  </si>
 </sst>
 </file>
 
@@ -156,9 +198,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3125,8 +3168,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF3167B-10F4-45DC-A04A-3A887516DB76}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3352,4 +3395,1543 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61A24E3C-3DDF-4625-801C-280396ABDBEF}">
+  <dimension ref="A1:H24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>386</v>
+      </c>
+      <c r="C2">
+        <v>233</v>
+      </c>
+      <c r="D2">
+        <v>405</v>
+      </c>
+      <c r="E2">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>393</v>
+      </c>
+      <c r="C3">
+        <v>226</v>
+      </c>
+      <c r="D3">
+        <v>412</v>
+      </c>
+      <c r="E3">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>401</v>
+      </c>
+      <c r="C4">
+        <v>218</v>
+      </c>
+      <c r="D4">
+        <v>421</v>
+      </c>
+      <c r="E4">
+        <v>238</v>
+      </c>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>406</v>
+      </c>
+      <c r="C5">
+        <v>210</v>
+      </c>
+      <c r="D5">
+        <v>424</v>
+      </c>
+      <c r="E5">
+        <v>230</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>99</v>
+      </c>
+      <c r="C6">
+        <v>316</v>
+      </c>
+      <c r="D6">
+        <v>114</v>
+      </c>
+      <c r="E6">
+        <v>331</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>286</v>
+      </c>
+      <c r="C7">
+        <v>218</v>
+      </c>
+      <c r="D7">
+        <v>303</v>
+      </c>
+      <c r="E7">
+        <v>229</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>478</v>
+      </c>
+      <c r="C8">
+        <v>327</v>
+      </c>
+      <c r="D8">
+        <v>464</v>
+      </c>
+      <c r="E8">
+        <v>310</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BB9AB7D-49ED-4999-8FC2-435099B68E85}">
+  <dimension ref="A1:P34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q8" sqref="Q8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="13" max="14" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>11.845454</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>12.088498</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>13.709668000000001</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>11.389327</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>12.170617999999999</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>12.783222</v>
+      </c>
+      <c r="M2" s="2">
+        <v>0</v>
+      </c>
+      <c r="N2" s="2">
+        <v>12.623677000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>3.8844880000000002</v>
+      </c>
+      <c r="B3">
+        <v>11.767752</v>
+      </c>
+      <c r="C3">
+        <v>3.8700320000000001</v>
+      </c>
+      <c r="D3">
+        <v>12.328673999999999</v>
+      </c>
+      <c r="E3">
+        <v>3.7299294000000001</v>
+      </c>
+      <c r="F3">
+        <v>11.998863999999999</v>
+      </c>
+      <c r="G3">
+        <v>3.9133585000000002</v>
+      </c>
+      <c r="H3">
+        <v>11.423586</v>
+      </c>
+      <c r="I3">
+        <v>3.7779696</v>
+      </c>
+      <c r="J3">
+        <v>12.335809999999999</v>
+      </c>
+      <c r="K3">
+        <v>3.6725428</v>
+      </c>
+      <c r="L3">
+        <v>14.899598000000001</v>
+      </c>
+      <c r="M3" s="2">
+        <v>3.9198710999999999</v>
+      </c>
+      <c r="N3" s="2">
+        <v>12.708234000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>7.7689760000000003</v>
+      </c>
+      <c r="B4">
+        <v>12.170517</v>
+      </c>
+      <c r="C4">
+        <v>7.7400640000000003</v>
+      </c>
+      <c r="D4">
+        <v>13.788558</v>
+      </c>
+      <c r="E4">
+        <v>7.4598588000000001</v>
+      </c>
+      <c r="F4">
+        <v>12.094104999999999</v>
+      </c>
+      <c r="G4">
+        <v>7.8267170000000004</v>
+      </c>
+      <c r="H4">
+        <v>11.395443999999999</v>
+      </c>
+      <c r="I4">
+        <v>7.5559392000000001</v>
+      </c>
+      <c r="J4" s="1">
+        <v>12.249829999999999</v>
+      </c>
+      <c r="K4" s="1">
+        <v>7.3450856</v>
+      </c>
+      <c r="L4">
+        <v>16.841879000000002</v>
+      </c>
+      <c r="M4" s="2">
+        <v>7.8397421999999999</v>
+      </c>
+      <c r="N4" s="2">
+        <v>12.465951</v>
+      </c>
+      <c r="P4" s="1"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>11.653464</v>
+      </c>
+      <c r="B5">
+        <v>12.78895</v>
+      </c>
+      <c r="C5">
+        <v>11.610096</v>
+      </c>
+      <c r="D5">
+        <v>14.516824</v>
+      </c>
+      <c r="E5">
+        <v>11.189788</v>
+      </c>
+      <c r="F5">
+        <v>12.31273</v>
+      </c>
+      <c r="G5">
+        <v>11.740076</v>
+      </c>
+      <c r="H5">
+        <v>11.063510000000001</v>
+      </c>
+      <c r="I5" s="1">
+        <v>11.333909</v>
+      </c>
+      <c r="J5" s="1">
+        <v>11.748866</v>
+      </c>
+      <c r="K5" s="1">
+        <v>11.017628</v>
+      </c>
+      <c r="L5">
+        <v>17.838509999999999</v>
+      </c>
+      <c r="M5" s="2">
+        <v>11.759613</v>
+      </c>
+      <c r="N5" s="2">
+        <v>12.470355000000001</v>
+      </c>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>15.537952000000001</v>
+      </c>
+      <c r="B6">
+        <v>15.652717000000001</v>
+      </c>
+      <c r="C6">
+        <v>15.480128000000001</v>
+      </c>
+      <c r="D6">
+        <v>15.536702999999999</v>
+      </c>
+      <c r="E6">
+        <v>14.919718</v>
+      </c>
+      <c r="F6">
+        <v>12.877737</v>
+      </c>
+      <c r="G6">
+        <v>15.653434000000001</v>
+      </c>
+      <c r="H6">
+        <v>12.798323</v>
+      </c>
+      <c r="I6" s="1">
+        <v>15.111878000000001</v>
+      </c>
+      <c r="J6" s="1">
+        <v>12.871098999999999</v>
+      </c>
+      <c r="K6" s="1">
+        <v>14.690170999999999</v>
+      </c>
+      <c r="L6">
+        <v>17.710595999999999</v>
+      </c>
+      <c r="M6" s="2">
+        <v>15.679484</v>
+      </c>
+      <c r="N6" s="2">
+        <v>12.249793</v>
+      </c>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>19.422440000000002</v>
+      </c>
+      <c r="B7">
+        <v>17.941520999999998</v>
+      </c>
+      <c r="C7">
+        <v>19.350159999999999</v>
+      </c>
+      <c r="D7">
+        <v>16.396504999999998</v>
+      </c>
+      <c r="E7">
+        <v>18.649647000000002</v>
+      </c>
+      <c r="F7">
+        <v>13.990779</v>
+      </c>
+      <c r="G7">
+        <v>19.566793000000001</v>
+      </c>
+      <c r="H7">
+        <v>14.806125</v>
+      </c>
+      <c r="I7" s="1">
+        <v>18.889848000000001</v>
+      </c>
+      <c r="J7" s="1">
+        <v>13.138122000000001</v>
+      </c>
+      <c r="K7" s="1">
+        <v>18.362713999999997</v>
+      </c>
+      <c r="L7">
+        <v>14.868425</v>
+      </c>
+      <c r="M7" s="2">
+        <v>19.599356</v>
+      </c>
+      <c r="N7" s="2">
+        <v>12.517509</v>
+      </c>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>23.306927999999999</v>
+      </c>
+      <c r="B8">
+        <v>18.164545999999998</v>
+      </c>
+      <c r="C8">
+        <v>23.220192000000001</v>
+      </c>
+      <c r="D8">
+        <v>17.465315999999998</v>
+      </c>
+      <c r="E8">
+        <v>22.379576</v>
+      </c>
+      <c r="F8">
+        <v>15.934239</v>
+      </c>
+      <c r="G8">
+        <v>23.480150999999999</v>
+      </c>
+      <c r="H8">
+        <v>16.931090000000001</v>
+      </c>
+      <c r="I8" s="1">
+        <v>22.667816999999999</v>
+      </c>
+      <c r="J8" s="1">
+        <v>16.716962000000002</v>
+      </c>
+      <c r="K8" s="1">
+        <v>22.035257000000001</v>
+      </c>
+      <c r="L8">
+        <v>13.801291000000001</v>
+      </c>
+      <c r="M8" s="2">
+        <v>23.519227000000001</v>
+      </c>
+      <c r="N8" s="2">
+        <v>15.060622</v>
+      </c>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>27.191416</v>
+      </c>
+      <c r="B9">
+        <v>18.165756000000002</v>
+      </c>
+      <c r="C9">
+        <v>27.090224000000003</v>
+      </c>
+      <c r="D9">
+        <v>17.928357000000002</v>
+      </c>
+      <c r="E9">
+        <v>26.109506000000003</v>
+      </c>
+      <c r="F9">
+        <v>17.162277</v>
+      </c>
+      <c r="G9">
+        <v>27.393509999999999</v>
+      </c>
+      <c r="H9">
+        <v>18.771741000000002</v>
+      </c>
+      <c r="I9" s="1">
+        <v>26.445786999999999</v>
+      </c>
+      <c r="J9" s="1">
+        <v>15.861621999999999</v>
+      </c>
+      <c r="K9" s="1">
+        <v>25.707799999999999</v>
+      </c>
+      <c r="L9">
+        <v>13.001204000000001</v>
+      </c>
+      <c r="M9" s="2">
+        <v>27.439098000000001</v>
+      </c>
+      <c r="N9" s="2">
+        <v>18.510266000000001</v>
+      </c>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>31.075904000000001</v>
+      </c>
+      <c r="B10">
+        <v>18.662372000000001</v>
+      </c>
+      <c r="C10">
+        <v>30.960256000000001</v>
+      </c>
+      <c r="D10">
+        <v>17.513441</v>
+      </c>
+      <c r="E10">
+        <v>29.839435000000002</v>
+      </c>
+      <c r="F10">
+        <v>17.347203999999998</v>
+      </c>
+      <c r="G10">
+        <v>31.306868000000001</v>
+      </c>
+      <c r="H10">
+        <v>17.666072</v>
+      </c>
+      <c r="I10" s="1">
+        <v>30.223756999999999</v>
+      </c>
+      <c r="J10" s="1">
+        <v>15.348835000000001</v>
+      </c>
+      <c r="K10" s="1">
+        <v>29.380341999999999</v>
+      </c>
+      <c r="L10">
+        <v>12.919502999999999</v>
+      </c>
+      <c r="M10" s="2">
+        <v>31.358969000000002</v>
+      </c>
+      <c r="N10" s="2">
+        <v>14.586981000000002</v>
+      </c>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>34.960392000000006</v>
+      </c>
+      <c r="B11">
+        <v>17.794523999999999</v>
+      </c>
+      <c r="C11">
+        <v>34.830288000000003</v>
+      </c>
+      <c r="D11">
+        <v>18.091093999999998</v>
+      </c>
+      <c r="E11">
+        <v>33.569365000000005</v>
+      </c>
+      <c r="F11">
+        <v>17.564019000000002</v>
+      </c>
+      <c r="G11">
+        <v>35.220227000000001</v>
+      </c>
+      <c r="H11">
+        <v>15.638826999999999</v>
+      </c>
+      <c r="I11" s="1">
+        <v>34.001725999999998</v>
+      </c>
+      <c r="J11" s="1">
+        <v>12.736459</v>
+      </c>
+      <c r="K11" s="1">
+        <v>33.052884999999996</v>
+      </c>
+      <c r="L11">
+        <v>13.472854</v>
+      </c>
+      <c r="M11" s="2">
+        <v>35.278840000000002</v>
+      </c>
+      <c r="N11" s="2">
+        <v>13.241210000000001</v>
+      </c>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>38.844880000000003</v>
+      </c>
+      <c r="B12">
+        <v>16.659937000000003</v>
+      </c>
+      <c r="C12">
+        <v>38.700319999999998</v>
+      </c>
+      <c r="D12">
+        <v>19.184031999999998</v>
+      </c>
+      <c r="E12">
+        <v>37.299294000000003</v>
+      </c>
+      <c r="F12">
+        <v>17.537917</v>
+      </c>
+      <c r="G12">
+        <v>39.133585000000004</v>
+      </c>
+      <c r="H12">
+        <v>14.412077</v>
+      </c>
+      <c r="I12" s="1">
+        <v>37.779696000000001</v>
+      </c>
+      <c r="J12" s="1">
+        <v>12.272349</v>
+      </c>
+      <c r="K12" s="1">
+        <v>36.725427999999994</v>
+      </c>
+      <c r="L12">
+        <v>16.692184000000001</v>
+      </c>
+      <c r="M12" s="2">
+        <v>39.198711000000003</v>
+      </c>
+      <c r="N12" s="2">
+        <v>13.388567999999999</v>
+      </c>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>42.729368000000001</v>
+      </c>
+      <c r="B13">
+        <v>16.169699999999999</v>
+      </c>
+      <c r="C13">
+        <v>42.570352</v>
+      </c>
+      <c r="D13">
+        <v>20.95477</v>
+      </c>
+      <c r="E13">
+        <v>41.029223999999999</v>
+      </c>
+      <c r="F13">
+        <v>17.226680999999999</v>
+      </c>
+      <c r="G13">
+        <v>43.046943999999996</v>
+      </c>
+      <c r="H13">
+        <v>17.340132000000001</v>
+      </c>
+      <c r="I13" s="1">
+        <v>41.557665</v>
+      </c>
+      <c r="J13" s="1">
+        <v>12.832467000000001</v>
+      </c>
+      <c r="K13" s="1">
+        <v>40.397971000000005</v>
+      </c>
+      <c r="L13">
+        <v>17.759961000000001</v>
+      </c>
+      <c r="M13" s="2">
+        <v>43.118582000000004</v>
+      </c>
+      <c r="N13" s="2">
+        <v>13.671728</v>
+      </c>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>46.613855999999998</v>
+      </c>
+      <c r="B14">
+        <v>15.910115999999999</v>
+      </c>
+      <c r="C14">
+        <v>46.440384000000002</v>
+      </c>
+      <c r="D14">
+        <v>23.375983000000002</v>
+      </c>
+      <c r="E14">
+        <v>44.759153000000005</v>
+      </c>
+      <c r="F14">
+        <v>17.163439</v>
+      </c>
+      <c r="G14">
+        <v>46.960301999999999</v>
+      </c>
+      <c r="H14">
+        <v>17.123733999999999</v>
+      </c>
+      <c r="I14" s="1">
+        <v>45.335635000000003</v>
+      </c>
+      <c r="J14" s="1">
+        <v>14.346867</v>
+      </c>
+      <c r="K14" s="1">
+        <v>44.070514000000003</v>
+      </c>
+      <c r="L14">
+        <v>17.373742</v>
+      </c>
+      <c r="M14" s="2">
+        <v>47.038453000000004</v>
+      </c>
+      <c r="N14" s="2">
+        <v>13.677175</v>
+      </c>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>50.498343999999996</v>
+      </c>
+      <c r="B15">
+        <v>14.987743999999999</v>
+      </c>
+      <c r="C15">
+        <v>50.310415999999996</v>
+      </c>
+      <c r="D15">
+        <v>23.248831000000003</v>
+      </c>
+      <c r="E15">
+        <v>48.489081999999996</v>
+      </c>
+      <c r="F15">
+        <v>16.970050999999998</v>
+      </c>
+      <c r="G15">
+        <v>50.873660999999998</v>
+      </c>
+      <c r="H15">
+        <v>15.585073</v>
+      </c>
+      <c r="I15" s="1">
+        <v>49.113605</v>
+      </c>
+      <c r="J15" s="1">
+        <v>16.966353000000002</v>
+      </c>
+      <c r="K15" s="1">
+        <v>47.743055999999996</v>
+      </c>
+      <c r="L15">
+        <v>17.354271000000001</v>
+      </c>
+      <c r="M15" s="2">
+        <v>50.958324000000005</v>
+      </c>
+      <c r="N15" s="2">
+        <v>17.317999</v>
+      </c>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>54.382832000000001</v>
+      </c>
+      <c r="B16">
+        <v>15.024835000000001</v>
+      </c>
+      <c r="C16">
+        <v>54.180448000000005</v>
+      </c>
+      <c r="D16">
+        <v>20.519047999999998</v>
+      </c>
+      <c r="E16">
+        <v>52.219012000000006</v>
+      </c>
+      <c r="F16">
+        <v>16.660024</v>
+      </c>
+      <c r="G16">
+        <v>54.787019000000001</v>
+      </c>
+      <c r="H16">
+        <v>13.49675</v>
+      </c>
+      <c r="I16" s="1">
+        <v>52.891573999999999</v>
+      </c>
+      <c r="J16" s="1">
+        <v>17.351935000000001</v>
+      </c>
+      <c r="K16" s="1">
+        <v>51.415599</v>
+      </c>
+      <c r="L16">
+        <v>15.395274000000001</v>
+      </c>
+      <c r="M16" s="2">
+        <v>54.878196000000003</v>
+      </c>
+      <c r="N16" s="2">
+        <v>18.266351</v>
+      </c>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>58.267319999999998</v>
+      </c>
+      <c r="B17">
+        <v>14.846819</v>
+      </c>
+      <c r="C17">
+        <v>58.05048</v>
+      </c>
+      <c r="D17">
+        <v>17.359574000000002</v>
+      </c>
+      <c r="E17">
+        <v>55.948940999999998</v>
+      </c>
+      <c r="F17">
+        <v>16.579464000000002</v>
+      </c>
+      <c r="G17">
+        <v>58.700378000000001</v>
+      </c>
+      <c r="H17">
+        <v>12.031248</v>
+      </c>
+      <c r="I17" s="1">
+        <v>56.669543999999995</v>
+      </c>
+      <c r="J17" s="1">
+        <v>15.198681000000001</v>
+      </c>
+      <c r="K17" s="1">
+        <v>55.088142000000005</v>
+      </c>
+      <c r="L17">
+        <v>13.995026000000001</v>
+      </c>
+      <c r="M17" s="2">
+        <v>58.798067000000003</v>
+      </c>
+      <c r="N17" s="2">
+        <v>18.872385999999999</v>
+      </c>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>62.151808000000003</v>
+      </c>
+      <c r="B18">
+        <v>15.402217</v>
+      </c>
+      <c r="C18">
+        <v>61.920512000000002</v>
+      </c>
+      <c r="D18">
+        <v>16.727129999999999</v>
+      </c>
+      <c r="E18">
+        <v>59.678870999999994</v>
+      </c>
+      <c r="F18">
+        <v>15.394617</v>
+      </c>
+      <c r="G18">
+        <v>62.613736000000003</v>
+      </c>
+      <c r="H18">
+        <v>11.849036999999999</v>
+      </c>
+      <c r="I18" s="1">
+        <v>60.447513000000008</v>
+      </c>
+      <c r="J18" s="1">
+        <v>15.308876999999999</v>
+      </c>
+      <c r="K18" s="1">
+        <v>58.760685000000002</v>
+      </c>
+      <c r="L18">
+        <v>13.039505999999999</v>
+      </c>
+      <c r="M18" s="2">
+        <v>62.717938000000004</v>
+      </c>
+      <c r="N18" s="2">
+        <v>19.113296999999999</v>
+      </c>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>66.036295999999993</v>
+      </c>
+      <c r="B19">
+        <v>17.618521000000001</v>
+      </c>
+      <c r="C19">
+        <v>65.790543999999997</v>
+      </c>
+      <c r="D19">
+        <v>16.843729</v>
+      </c>
+      <c r="E19">
+        <v>63.408799999999999</v>
+      </c>
+      <c r="F19">
+        <v>15.402840000000001</v>
+      </c>
+      <c r="G19">
+        <v>66.527095000000003</v>
+      </c>
+      <c r="H19">
+        <v>12.188428</v>
+      </c>
+      <c r="I19" s="1">
+        <v>64.225482999999997</v>
+      </c>
+      <c r="J19" s="1">
+        <v>15.049282999999999</v>
+      </c>
+      <c r="K19" s="1">
+        <v>62.433227999999993</v>
+      </c>
+      <c r="L19">
+        <v>12.494614</v>
+      </c>
+      <c r="M19" s="2">
+        <v>66.637809000000004</v>
+      </c>
+      <c r="N19" s="2">
+        <v>18.621677999999999</v>
+      </c>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>69.920784000000012</v>
+      </c>
+      <c r="B20">
+        <v>17.594306</v>
+      </c>
+      <c r="C20">
+        <v>69.660576000000006</v>
+      </c>
+      <c r="D20">
+        <v>15.976904000000001</v>
+      </c>
+      <c r="E20">
+        <v>67.138728999999998</v>
+      </c>
+      <c r="F20">
+        <v>16.257864999999999</v>
+      </c>
+      <c r="G20">
+        <v>70.440453000000005</v>
+      </c>
+      <c r="H20">
+        <v>13.125247999999999</v>
+      </c>
+      <c r="I20" s="1">
+        <v>68.003451999999996</v>
+      </c>
+      <c r="J20" s="1">
+        <v>13.427147</v>
+      </c>
+      <c r="K20" s="1">
+        <v>66.105769999999993</v>
+      </c>
+      <c r="L20">
+        <v>12.307851999999999</v>
+      </c>
+      <c r="M20" s="2">
+        <v>70.557680000000005</v>
+      </c>
+      <c r="N20" s="2">
+        <v>18.191473999999999</v>
+      </c>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>73.805272000000002</v>
+      </c>
+      <c r="B21">
+        <v>18.454701</v>
+      </c>
+      <c r="C21">
+        <v>73.530608000000001</v>
+      </c>
+      <c r="D21">
+        <v>15.022794999999999</v>
+      </c>
+      <c r="E21">
+        <v>70.868659000000008</v>
+      </c>
+      <c r="F21">
+        <v>16.348095000000001</v>
+      </c>
+      <c r="G21">
+        <v>74.353812000000005</v>
+      </c>
+      <c r="H21">
+        <v>15.354455</v>
+      </c>
+      <c r="I21" s="1">
+        <v>71.781421999999992</v>
+      </c>
+      <c r="J21" s="1">
+        <v>12.754589000000001</v>
+      </c>
+      <c r="K21" s="1">
+        <v>69.778312999999997</v>
+      </c>
+      <c r="L21">
+        <v>13.020546000000001</v>
+      </c>
+      <c r="M21" s="2">
+        <v>74.477551000000005</v>
+      </c>
+      <c r="N21" s="2">
+        <v>18.506105000000002</v>
+      </c>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>77.689760000000007</v>
+      </c>
+      <c r="B22">
+        <v>17.754028999999999</v>
+      </c>
+      <c r="C22">
+        <v>77.400639999999996</v>
+      </c>
+      <c r="D22">
+        <v>14.442738</v>
+      </c>
+      <c r="E22">
+        <v>74.598588000000007</v>
+      </c>
+      <c r="F22">
+        <v>15.977283999999999</v>
+      </c>
+      <c r="G22">
+        <v>78.267170000000007</v>
+      </c>
+      <c r="H22">
+        <v>16.200009999999999</v>
+      </c>
+      <c r="I22" s="1">
+        <v>75.559392000000003</v>
+      </c>
+      <c r="J22" s="1">
+        <v>12.050533</v>
+      </c>
+      <c r="K22" s="1">
+        <v>73.450855999999987</v>
+      </c>
+      <c r="L22">
+        <v>12.928276</v>
+      </c>
+      <c r="M22" s="2">
+        <v>78.397422000000006</v>
+      </c>
+      <c r="N22" s="2">
+        <v>17.598784999999999</v>
+      </c>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>81.574247999999997</v>
+      </c>
+      <c r="B23">
+        <v>16.814843999999997</v>
+      </c>
+      <c r="C23">
+        <v>81.270672000000005</v>
+      </c>
+      <c r="D23">
+        <v>16.09881</v>
+      </c>
+      <c r="E23">
+        <v>78.328518000000003</v>
+      </c>
+      <c r="F23">
+        <v>16.624808000000002</v>
+      </c>
+      <c r="G23">
+        <v>82.180528999999993</v>
+      </c>
+      <c r="H23">
+        <v>15.575438999999999</v>
+      </c>
+      <c r="I23" s="1">
+        <v>79.337361000000001</v>
+      </c>
+      <c r="J23" s="1">
+        <v>11.649239000000001</v>
+      </c>
+      <c r="K23" s="1">
+        <v>77.123399000000006</v>
+      </c>
+      <c r="L23">
+        <v>13.958982000000001</v>
+      </c>
+      <c r="M23" s="2">
+        <v>82.317292999999992</v>
+      </c>
+      <c r="N23" s="2">
+        <v>15.747091000000001</v>
+      </c>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>85.458736000000002</v>
+      </c>
+      <c r="B24">
+        <v>17.477450000000001</v>
+      </c>
+      <c r="C24">
+        <v>85.140703999999999</v>
+      </c>
+      <c r="D24">
+        <v>14.749977000000001</v>
+      </c>
+      <c r="E24">
+        <v>82.058447000000001</v>
+      </c>
+      <c r="F24">
+        <v>17.336481000000003</v>
+      </c>
+      <c r="G24">
+        <v>86.093887000000009</v>
+      </c>
+      <c r="H24">
+        <v>12.684335000000001</v>
+      </c>
+      <c r="I24">
+        <v>83.115330999999998</v>
+      </c>
+      <c r="J24" s="1">
+        <v>11.745691000000001</v>
+      </c>
+      <c r="K24" s="1"/>
+      <c r="M24" s="2">
+        <v>86.237164000000007</v>
+      </c>
+      <c r="N24" s="2">
+        <v>15.15166</v>
+      </c>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>89.343224000000006</v>
+      </c>
+      <c r="B25">
+        <v>14.504613000000001</v>
+      </c>
+      <c r="C25">
+        <v>89.010735999999994</v>
+      </c>
+      <c r="D25">
+        <v>12.051003999999999</v>
+      </c>
+      <c r="E25">
+        <v>85.788377000000011</v>
+      </c>
+      <c r="F25">
+        <v>16.043562000000001</v>
+      </c>
+      <c r="G25">
+        <v>90.007245999999995</v>
+      </c>
+      <c r="H25">
+        <v>12.147772000000002</v>
+      </c>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>93.227711999999997</v>
+      </c>
+      <c r="B26">
+        <v>12.709916999999999</v>
+      </c>
+      <c r="C26">
+        <v>92.880768000000003</v>
+      </c>
+      <c r="D26">
+        <v>11.778471</v>
+      </c>
+      <c r="E26">
+        <v>89.51830600000001</v>
+      </c>
+      <c r="F26">
+        <v>13.673546999999999</v>
+      </c>
+      <c r="G26">
+        <v>93.920603999999997</v>
+      </c>
+      <c r="H26">
+        <v>12.530101</v>
+      </c>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>97.112200000000001</v>
+      </c>
+      <c r="B27">
+        <v>12.352541</v>
+      </c>
+      <c r="C27">
+        <v>96.750800000000012</v>
+      </c>
+      <c r="D27">
+        <v>11.725997</v>
+      </c>
+      <c r="E27">
+        <v>93.248234999999994</v>
+      </c>
+      <c r="F27">
+        <v>12.339445</v>
+      </c>
+      <c r="G27">
+        <v>97.833962999999997</v>
+      </c>
+      <c r="H27">
+        <v>13.55334</v>
+      </c>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>100.99669</v>
+      </c>
+      <c r="B28">
+        <v>12.161888999999999</v>
+      </c>
+      <c r="C28">
+        <v>100.62083</v>
+      </c>
+      <c r="D28">
+        <v>11.884820999999999</v>
+      </c>
+      <c r="E28">
+        <v>96.978165000000004</v>
+      </c>
+      <c r="F28">
+        <v>12.034186</v>
+      </c>
+      <c r="G28">
+        <v>101.74732</v>
+      </c>
+      <c r="H28">
+        <v>12.479748000000001</v>
+      </c>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>104.88118</v>
+      </c>
+      <c r="B29">
+        <v>12.403938</v>
+      </c>
+      <c r="C29">
+        <v>104.49086</v>
+      </c>
+      <c r="D29">
+        <v>12.137713</v>
+      </c>
+      <c r="E29">
+        <v>100.70809</v>
+      </c>
+      <c r="F29">
+        <v>12.058921</v>
+      </c>
+      <c r="G29">
+        <v>105.66068</v>
+      </c>
+      <c r="H29">
+        <v>12.07091</v>
+      </c>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>108.76566</v>
+      </c>
+      <c r="B30">
+        <v>11.880537</v>
+      </c>
+      <c r="C30">
+        <v>108.3609</v>
+      </c>
+      <c r="D30">
+        <v>12.053153</v>
+      </c>
+      <c r="E30">
+        <v>104.43802000000001</v>
+      </c>
+      <c r="F30">
+        <v>12.046409000000001</v>
+      </c>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>112.65015</v>
+      </c>
+      <c r="B31">
+        <v>11.736078000000001</v>
+      </c>
+      <c r="C31">
+        <v>112.23093</v>
+      </c>
+      <c r="D31">
+        <v>12.143701</v>
+      </c>
+      <c r="E31">
+        <v>108.16794999999999</v>
+      </c>
+      <c r="F31">
+        <v>11.911843999999999</v>
+      </c>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>116.53464</v>
+      </c>
+      <c r="B32">
+        <v>13.03045</v>
+      </c>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+    </row>
+    <row r="33" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+    </row>
+    <row r="34" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>